--- a/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_01_end.xlsx
+++ b/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_01_end.xlsx
@@ -340,7 +340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Grani"]   Don't worry about the "officer" stuff, just call me Grani.
+    <t xml:space="preserve">[name="Grani"]   Don't worry about the 'officer' stuff, just call me Grani.
 </t>
   </si>
   <si>
